--- a/命令码.xlsx
+++ b/命令码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\logisim_snake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA77F6A3-75DF-4D75-9575-20D4BF3131F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED87ED9-2E78-4013-A1D7-8AB68D25C91E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="20" windowWidth="19180" windowHeight="10780" xr2:uid="{703954B1-8195-4112-8FFE-227AF841F33B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="111">
   <si>
     <t>16-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,52 @@
   <si>
     <t>调用键盘命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0-r1 常规处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r7 只读寄存器，总是为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5-r6屏幕IO输出，输出为点位的坐标，通过screen组件转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r4 归位控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空屏幕内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov r4, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80e40046</t>
+  </si>
+  <si>
+    <t>mov r4, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80e40006</t>
   </si>
 </sst>
 </file>
@@ -492,22 +538,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,12 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42354BC5-1C02-4CE7-B556-FE903A300118}">
-  <dimension ref="A12:O178"/>
+  <dimension ref="A12:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A23" sqref="A23"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="J47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1052,11 +1096,11 @@
       <c r="L26" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="3">
@@ -1080,7 +1124,7 @@
       <c r="J29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -1088,23 +1132,23 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2152,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" ref="M60:M69" si="2">_xlfn.CONCAT(D60:L60)</f>
+        <f t="shared" ref="M60:M71" si="2">_xlfn.CONCAT(D60:L60)</f>
         <v>10000000111000010000000000000110</v>
       </c>
       <c r="O60" s="2" t="s">
@@ -2477,16 +2521,16 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>10</v>
+      <c r="E68" s="2">
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>12</v>
@@ -2501,20 +2545,20 @@
         <v>37</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="2"/>
-        <v>11000000111001010000000000000110</v>
-      </c>
-      <c r="O68" t="s">
-        <v>52</v>
+        <f>_xlfn.CONCAT(D68:L68)</f>
+        <v>10000000111001000000000001000110</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2522,16 +2566,16 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>12</v>
@@ -2546,20 +2590,20 @@
         <v>37</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="2"/>
-        <v>11000000111001100000000001000110</v>
-      </c>
-      <c r="O69" t="s">
-        <v>53</v>
+        <f>_xlfn.CONCAT(D69:L69)</f>
+        <v>10000000111001000000000000000110</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -2567,67 +2611,135 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="2"/>
+        <v>11000000111001010000000000000110</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="2"/>
+        <v>11000000111001100000000001000110</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M70" t="str">
-        <f>_xlfn.CONCAT(D70:L70)</f>
+      <c r="M72" t="str">
+        <f>_xlfn.CONCAT(D72:L72)</f>
         <v>00010000000000000000000000000100</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="O72" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D73" s="2"/>
@@ -2650,7 +2762,6 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D75" s="2"/>
@@ -2662,92 +2773,40 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M76" t="str">
-        <f>_xlfn.CONCAT(D76:L76)</f>
-        <v>10000000000000000000000001000110</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="O76" s="2"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M77" t="str">
-        <f>_xlfn.CONCAT(D77:L77)</f>
-        <v>10000000000000001111111111000110</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="O77" s="2"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>10</v>
@@ -2765,10 +2824,10 @@
         <v>23</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>18</v>
@@ -2778,15 +2837,15 @@
       </c>
       <c r="M78" t="str">
         <f>_xlfn.CONCAT(D78:L78)</f>
-        <v>10000000001000010000000001000110</v>
-      </c>
-      <c r="O78" s="2">
-        <v>80210046</v>
+        <v>10000000000000000000000001000110</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>10</v>
@@ -2804,10 +2863,10 @@
         <v>23</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>89</v>
@@ -2817,36 +2876,91 @@
       </c>
       <c r="M79" t="str">
         <f>_xlfn.CONCAT(D79:L79)</f>
+        <v>10000000000000001111111111000110</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" t="str">
+        <f>_xlfn.CONCAT(D80:L80)</f>
+        <v>10000000001000010000000001000110</v>
+      </c>
+      <c r="O80" s="2">
+        <v>80210046</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" t="str">
+        <f>_xlfn.CONCAT(D81:L81)</f>
         <v>10000000001000011111111111000110</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2856,8 +2970,9 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -2868,7 +2983,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -2879,7 +2994,13 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -2890,7 +3011,10 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -2901,7 +3025,10 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>103</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -2912,7 +3039,10 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>104</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -2923,7 +3053,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -2934,7 +3064,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -2945,7 +3075,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -2956,7 +3086,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -2967,7 +3097,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -2978,7 +3108,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -2989,7 +3119,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3000,7 +3130,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -3912,6 +4042,28 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/命令码.xlsx
+++ b/命令码.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\logisim_snake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED87ED9-2E78-4013-A1D7-8AB68D25C91E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2869DD-EA1A-43E9-9B29-03A255AF0C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="19180" windowHeight="10780" xr2:uid="{703954B1-8195-4112-8FFE-227AF841F33B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{703954B1-8195-4112-8FFE-227AF841F33B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="130">
   <si>
     <t>16-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,17 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0补足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mov r0, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,14 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27-26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8000000</t>
   </si>
   <si>
@@ -431,22 +408,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mov r4, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80e40046</t>
-  </si>
-  <si>
-    <t>mov r4, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80e40006</t>
+    <t>21-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用键盘输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用固定指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定指令集(操作数16位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空显卡缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡缓存读入IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读入IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4004000</t>
+  </si>
+  <si>
+    <t>4008000</t>
+  </si>
+  <si>
+    <t>sw r0, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000000111001010000000000000110</t>
+  </si>
+  <si>
+    <t>11000000111001100000000001000110</t>
+  </si>
+  <si>
+    <t>lw r5, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw r6, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00100000111000000000000000000110</t>
+  </si>
+  <si>
+    <t>00100000111000010000000001000110</t>
+  </si>
+  <si>
+    <t>sw r1, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +629,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -583,8 +659,8 @@
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1243428</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82285</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>15126</xdr:rowOff>
     </xdr:to>
@@ -919,10 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42354BC5-1C02-4CE7-B556-FE903A300118}">
-  <dimension ref="A12:O180"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A12:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -930,20 +1007,20 @@
     <col min="3" max="3" width="32.08203125" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="9" width="13.08203125" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="16.4140625" customWidth="1"/>
-    <col min="12" max="12" width="21.9140625" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="35.1640625" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="10" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="16.4140625" customWidth="1"/>
+    <col min="13" max="13" width="21.9140625" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="35.1640625" customWidth="1"/>
+    <col min="16" max="16" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -951,8 +1028,9 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -962,8 +1040,9 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -973,8 +1052,9 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -984,8 +1064,9 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -995,8 +1076,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1006,8 +1088,9 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1017,8 +1100,9 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1028,8 +1112,9 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1039,8 +1124,9 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1050,8 +1136,9 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1061,8 +1148,9 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1072,8 +1160,9 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1083,8 +1172,9 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1094,15 +1184,17 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="3">
         <v>31</v>
       </c>
@@ -1115,23 +1207,26 @@
       <c r="G29" s="3">
         <v>28</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>21</v>
+      <c r="H29" s="3">
+        <v>27</v>
+      </c>
+      <c r="I29" s="3">
+        <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="9" t="s">
         <v>19</v>
       </c>
@@ -1139,20 +1234,21 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
@@ -1163,27 +1259,30 @@
         <v>4</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -1202,31 +1301,34 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>5</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
         <v>6</v>
       </c>
-      <c r="M32">
-        <f>SUM(D32:L32)</f>
+      <c r="N32">
+        <f>SUM(D32:M32)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
@@ -1241,23 +1343,26 @@
         <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1271,34 +1376,37 @@
         <v>12</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N34" t="str">
-        <f>_xlfn.CONCAT(D34:L34)</f>
+      <c r="O34" t="str">
+        <f>_xlfn.CONCAT(D34:M34)</f>
         <v>10000000111000000000000001000110</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
@@ -1313,23 +1421,26 @@
         <v>12</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D36" s="2">
         <v>1</v>
       </c>
@@ -1343,35 +1454,38 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" t="str">
-        <f t="shared" ref="N36" si="0">_xlfn.CONCAT(D36:L36)</f>
+      <c r="N36" s="1"/>
+      <c r="O36" t="str">
+        <f t="shared" ref="O36" si="0">_xlfn.CONCAT(D36:M36)</f>
         <v>10000000111000010000000100000110</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -1386,23 +1500,26 @@
         <v>11</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1416,34 +1533,37 @@
         <v>11</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" t="str">
+        <f>_xlfn.CONCAT(D38:M38)</f>
+        <v>00100000111000010000000000000110</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" t="str">
-        <f>_xlfn.CONCAT(D38:L38)</f>
-        <v>00100000111000010000000000000110</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
@@ -1458,23 +1578,26 @@
         <v>11</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D40" s="2">
         <v>1</v>
       </c>
@@ -1488,35 +1611,38 @@
         <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" t="str">
-        <f>_xlfn.CONCAT(D40:L40)</f>
+      <c r="N40" s="1"/>
+      <c r="O40" t="str">
+        <f>_xlfn.CONCAT(D40:M40)</f>
         <v>10000000111000010000000100000110</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
@@ -1531,23 +1657,26 @@
         <v>11</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="2">
+        <v>11</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="2">
         <v>7</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
@@ -1561,34 +1690,37 @@
         <v>11</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N42" t="str">
-        <f>_xlfn.CONCAT(D42:L42)</f>
+      <c r="O42" t="str">
+        <f>_xlfn.CONCAT(D42:M42)</f>
         <v>00100000111000010000000001000110</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
@@ -1603,23 +1735,26 @@
         <v>11</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1633,34 +1768,37 @@
         <v>11</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N44" t="str">
-        <f>_xlfn.CONCAT(D44:L44)</f>
+      <c r="O44" t="str">
+        <f>_xlfn.CONCAT(D44:M44)</f>
         <v>10000000111000000000000001000110</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -1675,23 +1813,26 @@
         <v>11</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D46" s="2" t="s">
         <v>10</v>
       </c>
@@ -1705,34 +1846,37 @@
         <v>11</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N46" t="str">
-        <f>_xlfn.CONCAT(D46:L46)</f>
+      <c r="O46" t="str">
+        <f>_xlfn.CONCAT(D46:M46)</f>
         <v>11000000111000010000000000000110</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>10</v>
@@ -1747,10 +1891,10 @@
         <v>11</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>10</v>
@@ -1759,11 +1903,14 @@
         <v>10</v>
       </c>
       <c r="L47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1777,34 +1924,37 @@
         <v>11</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N48" t="str">
-        <f>_xlfn.CONCAT(D48:L48)</f>
+      <c r="O48" t="str">
+        <f>_xlfn.CONCAT(D48:M48)</f>
         <v>10000000001000010000000001000110</v>
       </c>
-      <c r="O48" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -1819,23 +1969,26 @@
         <v>11</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="2">
+        <v>10</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="2">
         <v>110</v>
       </c>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
@@ -1849,207 +2002,225 @@
         <v>11</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" t="str">
+        <f>_xlfn.CONCAT(D50:M50)</f>
+        <v>00100000111000010000000000000110</v>
+      </c>
+      <c r="P50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N50" t="str">
-        <f>_xlfn.CONCAT(D50:L50)</f>
-        <v>00100000111000010000000000000110</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="O52" t="str">
+        <f>_xlfn.CONCAT(D52:M52)</f>
+        <v>11000000111001010000000000000110</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J51" s="2" t="s">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" t="str">
+        <f>_xlfn.CONCAT(D54:M54)</f>
+        <v>11000000111001100000000001000110</v>
+      </c>
+      <c r="P54" t="s">
         <v>49</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" s="2" t="s">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" t="str">
-        <f>_xlfn.CONCAT(D52:L52)</f>
-        <v>11000000111001010000000000000110</v>
-      </c>
-      <c r="O52" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" t="str">
-        <f>_xlfn.CONCAT(D54:L54)</f>
-        <v>11000000111001100000000001000110</v>
-      </c>
-      <c r="O54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
         <v>12</v>
       </c>
@@ -2063,29 +2234,32 @@
         <v>10</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N56" t="str">
-        <f t="shared" ref="N56" si="1">_xlfn.CONCAT(D56:L56)</f>
+        <v>31</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" ref="O56" si="1">_xlfn.CONCAT(D56:M56)</f>
         <v>00010000000000000000000000000011</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>10000003</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2093,10 +2267,11 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2"/>
       <c r="F58" s="2"/>
@@ -2106,22 +2281,23 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" t="s">
-        <v>94</v>
-      </c>
-      <c r="O58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M58" s="2"/>
+      <c r="N58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -2136,37 +2312,40 @@
         <v>12</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M59" t="str">
-        <f>_xlfn.CONCAT(D59:L59)</f>
+      <c r="N59" s="2" t="str">
+        <f>_xlfn.CONCAT(D59:M59)</f>
         <v>10000000111000000000000000000110</v>
       </c>
-      <c r="O59" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>10</v>
@@ -2181,37 +2360,40 @@
         <v>12</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M60" t="str">
-        <f t="shared" ref="M60:M71" si="2">_xlfn.CONCAT(D60:L60)</f>
+      <c r="N60" t="str">
+        <f t="shared" ref="N60:N77" si="2">_xlfn.CONCAT(D60:M60)</f>
         <v>10000000111000010000000000000110</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>12</v>
@@ -2226,37 +2408,40 @@
         <v>12</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M61" t="str">
+      <c r="N61" t="str">
         <f t="shared" si="2"/>
         <v>00100000111000000000000000000110</v>
       </c>
-      <c r="O61" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -2271,37 +2456,40 @@
         <v>12</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M62" t="str">
+      <c r="N62" t="str">
         <f t="shared" si="2"/>
         <v>00100000111000010000000001000110</v>
       </c>
-      <c r="O62" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>10</v>
@@ -2316,37 +2504,40 @@
         <v>12</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M63" t="str">
+      <c r="N63" t="str">
         <f t="shared" si="2"/>
         <v>11000000111000000000000000000110</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>10</v>
@@ -2361,606 +2552,695 @@
         <v>12</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M64" t="str">
+      <c r="N64" t="str">
         <f t="shared" si="2"/>
         <v>11000000111000010000000001000110</v>
       </c>
-      <c r="O64" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="2">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" t="s">
+        <v>123</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" t="s">
+        <v>124</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" t="s">
+        <v>119</v>
+      </c>
+      <c r="P67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" t="s">
+        <v>120</v>
+      </c>
+      <c r="P68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" ref="N69" si="3">_xlfn.CONCAT(D69:M69)</f>
+        <v>00000100000000001000000000000000</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N70" t="str">
+        <f>_xlfn.CONCAT(D70:M70)</f>
+        <v>00000100000000000100000000000000</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="2">
         <v>0</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L65" s="2" t="s">
+      <c r="L71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M65" t="str">
+      <c r="N71" t="str">
         <f t="shared" si="2"/>
         <v>00001000000000000000000000000000</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L66" s="2" t="s">
+      <c r="L72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M66" t="str">
+      <c r="N72" t="str">
         <f t="shared" si="2"/>
         <v>00100000111000000000000000000110</v>
       </c>
-      <c r="O66" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>8</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="P72" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M67" t="str">
+      <c r="N73" t="str">
         <f t="shared" si="2"/>
         <v>00100000111000010000000001000110</v>
       </c>
-      <c r="O67" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>9</v>
-      </c>
-      <c r="B68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="P73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2">
         <v>1</v>
       </c>
-      <c r="E68" s="2">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M68" t="str">
-        <f>_xlfn.CONCAT(D68:L68)</f>
-        <v>10000000111001000000000001000110</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>10</v>
-      </c>
-      <c r="B69" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M69" t="str">
-        <f>_xlfn.CONCAT(D69:L69)</f>
-        <v>10000000111001000000000000000110</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M70" t="str">
+      <c r="N74" t="str">
         <f t="shared" si="2"/>
         <v>11000000111001010000000000000110</v>
       </c>
-      <c r="O70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>12</v>
-      </c>
-      <c r="B71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J71" s="2" t="s">
+      <c r="P74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M71" t="str">
+      <c r="N75" t="str">
         <f t="shared" si="2"/>
         <v>11000000111001100000000001000110</v>
       </c>
-      <c r="O71" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="2" t="s">
+      <c r="P75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N76" t="str">
+        <f>_xlfn.CONCAT(D76:M76)</f>
+        <v>00000100000000000100000000000000</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M72" t="str">
-        <f>_xlfn.CONCAT(D72:L72)</f>
+      <c r="L77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="2"/>
         <v>00010000000000000000000000000100</v>
       </c>
-      <c r="O72" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M78" t="str">
-        <f>_xlfn.CONCAT(D78:L78)</f>
-        <v>10000000000000000000000001000110</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M79" t="str">
-        <f>_xlfn.CONCAT(D79:L79)</f>
-        <v>10000000000000001111111111000110</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M80" t="str">
-        <f>_xlfn.CONCAT(D80:L80)</f>
-        <v>10000000001000010000000001000110</v>
-      </c>
-      <c r="O80" s="2">
-        <v>80210046</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M81" t="str">
-        <f>_xlfn.CONCAT(D81:L81)</f>
-        <v>10000000001000011111111111000110</v>
-      </c>
-      <c r="O81" s="2" t="s">
+      <c r="P77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2970,65 +3250,181 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M82" s="2"/>
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" t="str">
+        <f>_xlfn.CONCAT(D83:M83)</f>
+        <v>10000000000000000000000001000110</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N84" t="str">
+        <f>_xlfn.CONCAT(D84:M84)</f>
+        <v>10000000000000001111111111000110</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>103</v>
-      </c>
+      <c r="I85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" t="str">
+        <f>_xlfn.CONCAT(D85:M85)</f>
+        <v>10000000001000010000000001000110</v>
+      </c>
+      <c r="P85" s="2">
+        <v>80210046</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" t="str">
+        <f>_xlfn.CONCAT(D86:M86)</f>
+        <v>10000000001000011111111111000110</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -3038,11 +3434,10 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>104</v>
-      </c>
+      <c r="M87" s="2"/>
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -3052,8 +3447,9 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -3063,8 +3459,15 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -3074,8 +3477,12 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -3085,8 +3492,12 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -3096,8 +3507,12 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -3107,8 +3522,9 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -3118,8 +3534,9 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3129,8 +3546,12 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -3140,8 +3561,9 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -3151,30 +3573,47 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C98" s="3">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C99" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -3184,8 +3623,9 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -3195,8 +3635,9 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -3206,8 +3647,9 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -3217,8 +3659,9 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -3228,8 +3671,9 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -3239,8 +3683,9 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -3250,8 +3695,9 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -3261,8 +3707,9 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -3272,8 +3719,9 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -3283,8 +3731,9 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -3294,8 +3743,9 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -3305,8 +3755,9 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -3316,8 +3767,9 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -3327,8 +3779,9 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3338,8 +3791,9 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -3349,8 +3803,9 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -3360,8 +3815,9 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -3371,8 +3827,9 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -3382,8 +3839,9 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -3393,8 +3851,9 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -3404,8 +3863,9 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -3415,8 +3875,9 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-    </row>
-    <row r="122" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -3426,8 +3887,9 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -3437,8 +3899,9 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -3448,8 +3911,9 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -3459,8 +3923,9 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -3470,8 +3935,9 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-    </row>
-    <row r="127" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -3481,8 +3947,9 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-    </row>
-    <row r="128" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -3492,8 +3959,9 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
-    </row>
-    <row r="129" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -3503,8 +3971,9 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
-    </row>
-    <row r="130" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -3514,8 +3983,9 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
-    </row>
-    <row r="131" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -3525,8 +3995,9 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
-    </row>
-    <row r="132" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -3536,8 +4007,9 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
-    </row>
-    <row r="133" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -3547,8 +4019,9 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-    </row>
-    <row r="134" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M133" s="2"/>
+    </row>
+    <row r="134" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -3558,8 +4031,9 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-    </row>
-    <row r="135" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M134" s="2"/>
+    </row>
+    <row r="135" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -3569,8 +4043,9 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
-    </row>
-    <row r="136" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M135" s="2"/>
+    </row>
+    <row r="136" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -3580,8 +4055,9 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-    </row>
-    <row r="137" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -3591,8 +4067,9 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
-    </row>
-    <row r="138" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M137" s="2"/>
+    </row>
+    <row r="138" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -3602,8 +4079,9 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-    </row>
-    <row r="139" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="2"/>
+    </row>
+    <row r="139" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -3613,8 +4091,9 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-    </row>
-    <row r="140" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M139" s="2"/>
+    </row>
+    <row r="140" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -3624,8 +4103,9 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-    </row>
-    <row r="141" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M140" s="2"/>
+    </row>
+    <row r="141" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -3635,8 +4115,9 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
-    </row>
-    <row r="142" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -3646,8 +4127,9 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
-    </row>
-    <row r="143" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M142" s="2"/>
+    </row>
+    <row r="143" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -3657,8 +4139,9 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-    </row>
-    <row r="144" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M143" s="2"/>
+    </row>
+    <row r="144" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -3668,8 +4151,9 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-    </row>
-    <row r="145" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M144" s="2"/>
+    </row>
+    <row r="145" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -3679,8 +4163,9 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-    </row>
-    <row r="146" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M145" s="2"/>
+    </row>
+    <row r="146" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -3690,8 +4175,9 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-    </row>
-    <row r="147" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M146" s="2"/>
+    </row>
+    <row r="147" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -3701,8 +4187,9 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-    </row>
-    <row r="148" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M147" s="2"/>
+    </row>
+    <row r="148" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -3712,8 +4199,9 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-    </row>
-    <row r="149" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M148" s="2"/>
+    </row>
+    <row r="149" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -3723,8 +4211,9 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-    </row>
-    <row r="150" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M149" s="2"/>
+    </row>
+    <row r="150" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -3734,8 +4223,9 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-    </row>
-    <row r="151" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M150" s="2"/>
+    </row>
+    <row r="151" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -3745,8 +4235,9 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-    </row>
-    <row r="152" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M151" s="2"/>
+    </row>
+    <row r="152" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -3756,8 +4247,9 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-    </row>
-    <row r="153" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M152" s="2"/>
+    </row>
+    <row r="153" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -3767,8 +4259,9 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-    </row>
-    <row r="154" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M153" s="2"/>
+    </row>
+    <row r="154" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -3778,8 +4271,9 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-    </row>
-    <row r="155" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M154" s="2"/>
+    </row>
+    <row r="155" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -3789,8 +4283,9 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-    </row>
-    <row r="156" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M155" s="2"/>
+    </row>
+    <row r="156" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -3800,8 +4295,9 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-    </row>
-    <row r="157" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M156" s="2"/>
+    </row>
+    <row r="157" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -3811,8 +4307,9 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-    </row>
-    <row r="158" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M157" s="2"/>
+    </row>
+    <row r="158" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -3822,8 +4319,9 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
-    </row>
-    <row r="159" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M158" s="2"/>
+    </row>
+    <row r="159" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -3833,8 +4331,9 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
-    </row>
-    <row r="160" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M159" s="2"/>
+    </row>
+    <row r="160" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -3844,8 +4343,9 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
-    </row>
-    <row r="161" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M160" s="2"/>
+    </row>
+    <row r="161" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -3855,8 +4355,9 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
-    </row>
-    <row r="162" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M161" s="2"/>
+    </row>
+    <row r="162" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -3866,8 +4367,9 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
-    </row>
-    <row r="163" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M162" s="2"/>
+    </row>
+    <row r="163" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -3877,8 +4379,9 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
-    </row>
-    <row r="164" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M163" s="2"/>
+    </row>
+    <row r="164" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -3888,8 +4391,9 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
-    </row>
-    <row r="165" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M164" s="2"/>
+    </row>
+    <row r="165" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -3899,8 +4403,9 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
-    </row>
-    <row r="166" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M165" s="2"/>
+    </row>
+    <row r="166" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -3910,8 +4415,9 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
-    </row>
-    <row r="167" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M166" s="2"/>
+    </row>
+    <row r="167" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -3921,8 +4427,9 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
-    </row>
-    <row r="168" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M167" s="2"/>
+    </row>
+    <row r="168" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -3932,8 +4439,9 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
-    </row>
-    <row r="169" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M168" s="2"/>
+    </row>
+    <row r="169" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -3943,8 +4451,9 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
-    </row>
-    <row r="170" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M169" s="2"/>
+    </row>
+    <row r="170" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -3954,8 +4463,9 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
-    </row>
-    <row r="171" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M170" s="2"/>
+    </row>
+    <row r="171" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -3965,8 +4475,9 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
-    </row>
-    <row r="172" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M171" s="2"/>
+    </row>
+    <row r="172" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -3976,8 +4487,9 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
-    </row>
-    <row r="173" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M172" s="2"/>
+    </row>
+    <row r="173" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -3987,8 +4499,9 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
-    </row>
-    <row r="174" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M173" s="2"/>
+    </row>
+    <row r="174" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -3998,8 +4511,9 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
-    </row>
-    <row r="175" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M174" s="2"/>
+    </row>
+    <row r="175" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -4009,8 +4523,9 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
-    </row>
-    <row r="176" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M175" s="2"/>
+    </row>
+    <row r="176" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -4020,8 +4535,9 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
-    </row>
-    <row r="177" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M176" s="2"/>
+    </row>
+    <row r="177" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -4031,8 +4547,9 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
-    </row>
-    <row r="178" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M177" s="2"/>
+    </row>
+    <row r="178" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -4042,8 +4559,9 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
-    </row>
-    <row r="179" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M178" s="2"/>
+    </row>
+    <row r="179" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -4053,8 +4571,9 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
-    </row>
-    <row r="180" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M179" s="2"/>
+    </row>
+    <row r="180" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -4064,11 +4583,72 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+    </row>
+    <row r="181" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+    </row>
+    <row r="182" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+    </row>
+    <row r="183" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+    </row>
+    <row r="184" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+    </row>
+    <row r="185" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/命令码.xlsx
+++ b/命令码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\logisim_snake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2869DD-EA1A-43E9-9B29-03A255AF0C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705285AF-AF4D-4F4F-899B-57845A86392A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{703954B1-8195-4112-8FFE-227AF841F33B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="159">
   <si>
     <t>16-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,276 +250,383 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>addi r0, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化r0,x坐标,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化r1,y坐标y,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出ram，偏移量0，到r0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出ram，偏移量1，到r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump to 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80e00006</t>
+  </si>
+  <si>
+    <t>80e10006</t>
+  </si>
+  <si>
+    <t>20e00006</t>
+  </si>
+  <si>
+    <t>c0e00006</t>
+  </si>
+  <si>
+    <t>c0e10046</t>
+  </si>
+  <si>
+    <t>80000046</t>
+  </si>
+  <si>
+    <t>10000004</t>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+  </si>
+  <si>
+    <t>把r0，y坐标+1，也就是向上移动1位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add r0, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add r1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add r1, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000ffc6</t>
+  </si>
+  <si>
+    <t>8021ffc6</t>
+  </si>
+  <si>
+    <t>二进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEX十六进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0是y坐标,r1是x坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例中的代码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用键盘命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0-r1 常规处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r7 只读寄存器，总是为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5-r6屏幕IO输出，输出为点位的坐标，通过screen组件转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空屏幕内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用键盘输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用固定指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定指令集(操作数16位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空显卡缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡缓存读入IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读入IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4004000</t>
+  </si>
+  <si>
+    <t>4008000</t>
+  </si>
+  <si>
+    <t>存入ram，偏移量2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出ram，偏移量2，到r0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出ram，偏移量3，到r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw r0, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw r1, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw r0, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw r1, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lw r0, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lw r1, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addi r0, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化r0,x坐标,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化r1,y坐标y,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入ram，偏移量0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入ram，偏移量1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取出ram，偏移量0，到r0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取出ram，偏移量1，到r1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入ram，偏移量0,r0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入ram，偏移量1，r1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goto 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump to 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80e00006</t>
-  </si>
-  <si>
-    <t>80e10006</t>
-  </si>
-  <si>
-    <t>20e00006</t>
-  </si>
-  <si>
-    <t>c0e00006</t>
-  </si>
-  <si>
-    <t>c0e10046</t>
-  </si>
-  <si>
-    <t>80000046</t>
-  </si>
-  <si>
-    <t>10000004</t>
-  </si>
-  <si>
-    <t>IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000000</t>
-  </si>
-  <si>
-    <t>把r0，y坐标+1，也就是向上移动1位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add r0, -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add r1, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add r1, -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000ffc6</t>
-  </si>
-  <si>
-    <t>8021ffc6</t>
-  </si>
-  <si>
-    <t>二进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEX十六进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r0是y坐标,r1是x坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例中的代码:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用键盘命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄存器:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r0-r1 常规处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r7 只读寄存器，总是为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r5-r6屏幕IO输出，输出为点位的坐标，通过screen组件转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r4 归位控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空屏幕内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用键盘输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用固定指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定指令集(操作数16位)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空显卡缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0补全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显卡缓存读入IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读入IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4004000</t>
-  </si>
-  <si>
-    <t>4008000</t>
-  </si>
-  <si>
     <t>sw r0, 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11000000111001010000000000000110</t>
-  </si>
-  <si>
-    <t>11000000111001100000000001000110</t>
-  </si>
-  <si>
-    <t>lw r5, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lw r6, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00100000111000000000000000000110</t>
-  </si>
-  <si>
-    <t>00100000111000010000000001000110</t>
-  </si>
-  <si>
     <t>sw r1, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存入ram，偏移量2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入ram，偏移量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>lw r1 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0e00086</t>
+  </si>
+  <si>
+    <t>c0e100c6</t>
+  </si>
+  <si>
+    <t>20e00086</t>
+  </si>
+  <si>
+    <t>20e100c6</t>
+  </si>
+  <si>
+    <t>20e00106</t>
+  </si>
+  <si>
+    <t>20e10146</t>
+  </si>
+  <si>
+    <t>显卡IO反向读入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读入IO反向，也就是擦除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4002000</t>
+  </si>
+  <si>
+    <t>lw r0, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw r1, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw r0, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw r1, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出ram，偏移量4，到r0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出ram，偏移量5，到r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入ram，偏移量7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw r5, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw r6, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0e00106</t>
+  </si>
+  <si>
+    <t>c0e10146</t>
+  </si>
+  <si>
+    <t>20e00186</t>
+  </si>
+  <si>
+    <t>20e101c6</t>
+  </si>
+  <si>
+    <t>c0e50186</t>
+  </si>
+  <si>
+    <t>c0e601c6</t>
   </si>
 </sst>
 </file>
@@ -620,6 +727,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,9 +738,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42354BC5-1C02-4CE7-B556-FE903A300118}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A12:P185"/>
+  <dimension ref="A12:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1187,12 +1294,12 @@
       <c r="M26" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="3">
@@ -1214,7 +1321,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>0</v>
@@ -1227,14 +1334,14 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="5" t="s">
         <v>22</v>
       </c>
@@ -1262,10 +1369,10 @@
         <v>50</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>5</v>
@@ -1282,7 +1389,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -1343,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>12</v>
@@ -1376,10 +1483,10 @@
         <v>12</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>33</v>
@@ -1421,10 +1528,10 @@
         <v>12</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>32</v>
@@ -2271,7 +2378,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C58" s="2"/>
       <c r="F58" s="2"/>
@@ -2283,10 +2390,10 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -2297,7 +2404,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -2312,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>12</v>
@@ -2334,7 +2441,7 @@
         <v>10000000111000000000000000000110</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -2345,7 +2452,7 @@
         <v>54</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>10</v>
@@ -2360,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>12</v>
@@ -2377,12 +2484,12 @@
       <c r="M60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N60" t="str">
-        <f t="shared" ref="N60:N77" si="2">_xlfn.CONCAT(D60:M60)</f>
+      <c r="N60" s="2" t="str">
+        <f t="shared" ref="N60:N84" si="2">_xlfn.CONCAT(D60:M60)</f>
         <v>10000000111000010000000000000110</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -2393,7 +2500,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>12</v>
@@ -2408,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>12</v>
@@ -2425,12 +2532,12 @@
       <c r="M61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N61" t="str">
+      <c r="N61" s="2" t="str">
         <f t="shared" si="2"/>
         <v>00100000111000000000000000000110</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -2441,7 +2548,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -2456,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>11</v>
@@ -2473,7 +2580,7 @@
       <c r="M62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N62" t="str">
+      <c r="N62" s="2" t="str">
         <f t="shared" si="2"/>
         <v>00100000111000010000000001000110</v>
       </c>
@@ -2486,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>10</v>
@@ -2516,17 +2623,17 @@
         <v>16</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N63" t="str">
+      <c r="N63" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>11000000111000000000000000000110</v>
+        <v>11000000111000000000000100000110</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -2534,10 +2641,10 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>10</v>
@@ -2564,17 +2671,17 @@
         <v>21</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N64" t="str">
+      <c r="N64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>11000000111000010000000001000110</v>
+        <v>11000000111000010000000101000110</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -2582,10 +2689,10 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>12</v>
@@ -2600,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>12</v>
@@ -2612,16 +2719,17 @@
         <v>16</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N65" t="s">
-        <v>123</v>
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00100000111000000000000110000110</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -2629,10 +2737,10 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>12</v>
@@ -2647,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>11</v>
@@ -2659,16 +2767,17 @@
         <v>21</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N66" t="s">
-        <v>124</v>
+      <c r="N66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00100000111000010000000111000110</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -2676,13 +2785,13 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -2694,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>11</v>
@@ -2703,19 +2812,20 @@
         <v>33</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N67" t="s">
-        <v>119</v>
-      </c>
-      <c r="P67" t="s">
-        <v>48</v>
+      <c r="N67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11000000111000000000000010000110</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -2723,10 +2833,10 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>10</v>
@@ -2750,64 +2860,68 @@
         <v>33</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N68" t="s">
-        <v>120</v>
-      </c>
-      <c r="P68" t="s">
-        <v>49</v>
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11000000111000010000000011000110</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>99</v>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" ref="N69" si="3">_xlfn.CONCAT(D69:M69)</f>
-        <v>00000100000000001000000000000000</v>
+        <v>17</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00100000111000000000000100000110</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -2815,45 +2929,47 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N70" t="str">
-        <f>_xlfn.CONCAT(D70:M70)</f>
-        <v>00000100000000000100000000000000</v>
-      </c>
-      <c r="P70" s="10" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="N70" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00100000111000010000000101000110</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -2861,13 +2977,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>12</v>
@@ -2876,13 +2995,13 @@
         <v>12</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>16</v>
@@ -2891,15 +3010,14 @@
         <v>31</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N71" t="str">
+        <v>17</v>
+      </c>
+      <c r="N71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00001000000000000000000000000000</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>11000000111000000000000000000110</v>
+      </c>
       <c r="P71" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -2907,25 +3025,25 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>11</v>
@@ -2934,20 +3052,20 @@
         <v>33</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N72" t="str">
+      <c r="N72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00100000111000000000000000000110</v>
+        <v>11000000111000010000000001000110</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -2955,10 +3073,10 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>12</v>
@@ -2973,29 +3091,29 @@
         <v>12</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N73" t="str">
+      <c r="N73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00100000111000010000000001000110</v>
+        <v>00100000111000000000000010000110</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -3003,25 +3121,25 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>11</v>
@@ -3030,20 +3148,20 @@
         <v>33</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N74" t="str">
+      <c r="N74" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>11000000111001010000000000000110</v>
-      </c>
-      <c r="P74" t="s">
-        <v>48</v>
+        <v>00100000111000010000000011000110</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -3051,16 +3169,13 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>12</v>
@@ -3069,29 +3184,30 @@
         <v>12</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N75" t="str">
+        <v>15</v>
+      </c>
+      <c r="N75" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>11000000111001100000000001000110</v>
-      </c>
-      <c r="P75" t="s">
-        <v>49</v>
+        <v>00001000000000000000000000000000</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -3099,45 +3215,47 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N76" t="str">
-        <f>_xlfn.CONCAT(D76:M76)</f>
-        <v>00000100000000000100000000000000</v>
-      </c>
-      <c r="P76" s="10" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="N76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00100000111000000000000000000110</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -3145,10 +3263,10 @@
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>12</v>
@@ -3157,10 +3275,10 @@
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>11</v>
@@ -3169,262 +3287,403 @@
         <v>11</v>
       </c>
       <c r="J77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00100000111000010000000001000110</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11000000111001010000000110000110</v>
+      </c>
+      <c r="P78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11000000111001100000000111000110</v>
+      </c>
+      <c r="P79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00000100000000000010000000000000</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11000000111001010000000000000110</v>
+      </c>
+      <c r="P81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11000000111001100000000001000110</v>
+      </c>
+      <c r="P82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00000100000000000100000000000000</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N77" t="str">
+      <c r="M84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N84" s="2" t="str">
         <f t="shared" si="2"/>
         <v>00010000000000000000000000000100</v>
       </c>
-      <c r="P77" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="P81" s="2"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="2" t="s">
+      <c r="P84" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N83" t="str">
-        <f>_xlfn.CONCAT(D83:M83)</f>
-        <v>10000000000000000000000001000110</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N84" t="str">
-        <f>_xlfn.CONCAT(D84:M84)</f>
-        <v>10000000000000001111111111000110</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N85" t="str">
-        <f>_xlfn.CONCAT(D85:M85)</f>
-        <v>10000000001000010000000001000110</v>
-      </c>
-      <c r="P85" s="2">
-        <v>80210046</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L86" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N86" t="str">
+        <v>15</v>
+      </c>
+      <c r="N86" s="2" t="str">
         <f>_xlfn.CONCAT(D86:M86)</f>
-        <v>10000000001000011111111111000110</v>
+        <v>00000100000000001000000000000000</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -3435,9 +3694,8 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-      <c r="P87" s="2"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -3448,8 +3706,12 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -3460,71 +3722,180 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" t="str">
+        <f>_xlfn.CONCAT(D90:M90)</f>
+        <v>10000000000000000000000001000110</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" t="str">
+        <f>_xlfn.CONCAT(D91:M91)</f>
+        <v>10000000000000001111111111000110</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" t="str">
+        <f>_xlfn.CONCAT(D92:M92)</f>
+        <v>10000000001000010000000001000110</v>
+      </c>
+      <c r="P92" s="2">
+        <v>80210046</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N93" t="str">
+        <f>_xlfn.CONCAT(D93:M93)</f>
+        <v>10000000001000011111111111000110</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -3535,8 +3906,9 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3548,10 +3920,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>105</v>
-      </c>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -3563,7 +3932,13 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" t="s">
+        <v>91</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -3575,45 +3950,37 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C98" s="3">
-        <v>15</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C99" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -3625,7 +3992,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -3637,7 +4004,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -3649,7 +4016,10 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>100</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -3661,7 +4031,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -3673,31 +4043,49 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C105" s="3">
+        <v>15</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105" s="3">
+        <v>13</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C106" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106" t="s">
+        <v>135</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -3709,7 +4097,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -3721,7 +4109,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -3733,7 +4121,8 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -3744,8 +4133,11 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N110" s="2"/>
+      <c r="P110" s="2"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -3756,8 +4148,9 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-    </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P111" s="2"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -4645,6 +5038,90 @@
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
+    <row r="186" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+    </row>
+    <row r="187" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+    </row>
+    <row r="188" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+    </row>
+    <row r="189" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+    </row>
+    <row r="190" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+    </row>
+    <row r="191" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+    </row>
+    <row r="192" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D28:I28"/>

--- a/命令码.xlsx
+++ b/命令码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\logisim_snake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D75FA2-A212-4CA7-AB3F-002BEF6E021A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771C9B4-4557-45A2-B86D-62980326E300}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{703954B1-8195-4112-8FFE-227AF841F33B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="227">
   <si>
     <t>16-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,9 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8000000</t>
-  </si>
-  <si>
     <t>把r0，y坐标+1，也就是向上移动1位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用键盘输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,9 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4004000</t>
-  </si>
-  <si>
     <t>4008000</t>
   </si>
   <si>
@@ -702,10 +692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">goto 33 if !r5 and r6 = 1 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,29 +782,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goto 39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump to 39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10e9ffc8</t>
-  </si>
-  <si>
     <t>c0e50206</t>
   </si>
   <si>
     <t>20e50206</t>
   </si>
   <si>
-    <t>10074019</t>
-  </si>
-  <si>
-    <t>10084019</t>
-  </si>
-  <si>
     <t>视频里的示例代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,14 +796,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4000020</t>
-  </si>
-  <si>
     <t>80a50046</t>
   </si>
   <si>
     <t>0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定指令选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10074011</t>
+  </si>
+  <si>
+    <t>10084011</t>
+  </si>
+  <si>
+    <t>add r5, random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add r6, random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto 44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84050003</t>
+  </si>
+  <si>
+    <t>jump to 44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10eb3fc8</t>
+  </si>
+  <si>
+    <t>默认空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw r5, 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw r6, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04000001</t>
+  </si>
+  <si>
+    <t>04004000</t>
+  </si>
+  <si>
+    <t>04008000</t>
+  </si>
+  <si>
+    <t>04000020</t>
+  </si>
+  <si>
+    <t>84060003</t>
+  </si>
+  <si>
+    <t>20e50246</t>
+  </si>
+  <si>
+    <t>20e60286</t>
   </si>
 </sst>
 </file>
@@ -858,7 +905,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,8 +924,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -919,13 +972,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +1057,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42354BC5-1C02-4CE7-B556-FE903A300118}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U181"/>
+  <dimension ref="A1:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1666,8 +1754,12 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
-      <c r="K28" t="s">
-        <v>175</v>
+      <c r="K28" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="P28" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
@@ -1692,25 +1784,25 @@
         <v>26</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
@@ -1756,10 +1848,10 @@
         <v>43</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>4</v>
@@ -1768,16 +1860,16 @@
         <v>5</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>7</v>
@@ -1839,7 +1931,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1"/>
       <c r="F33" s="1"/>
@@ -1854,11 +1946,11 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R33" s="13"/>
       <c r="S33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T33" s="1"/>
     </row>
@@ -1885,7 +1977,7 @@
         <v>11</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>11</v>
@@ -1897,19 +1989,19 @@
         <v>14</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="1" t="str">
         <f>_xlfn.CONCAT(D34:P34)</f>
@@ -1944,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>11</v>
@@ -1956,19 +2048,19 @@
         <v>16</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q35" s="1" t="str">
         <f>_xlfn.CONCAT(D35:P35)</f>
@@ -2002,7 +2094,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>11</v>
@@ -2014,19 +2106,19 @@
         <v>14</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q36" s="1" t="str">
         <f>_xlfn.CONCAT(D36:P36)</f>
@@ -2060,7 +2152,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>10</v>
@@ -2072,10 +2164,10 @@
         <v>16</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>10</v>
@@ -2084,7 +2176,7 @@
         <v>10</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="1" t="str">
         <f>_xlfn.CONCAT(D37:P37)</f>
@@ -2100,10 +2192,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -2130,10 +2222,10 @@
         <v>14</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>10</v>
@@ -2142,14 +2234,14 @@
         <v>10</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q38" s="1" t="str">
         <f>_xlfn.CONCAT(D38:P38)</f>
         <v>11000000111000000000000100000110</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="T38" s="1"/>
     </row>
@@ -2158,10 +2250,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
@@ -2188,10 +2280,10 @@
         <v>16</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>10</v>
@@ -2200,14 +2292,14 @@
         <v>10</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q39" s="1" t="str">
         <f>_xlfn.CONCAT(D39:P39)</f>
         <v>11000000111000010000000101000110</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="T39" s="1"/>
     </row>
@@ -2216,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -2246,10 +2338,10 @@
         <v>14</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>10</v>
@@ -2258,14 +2350,14 @@
         <v>10</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q40" s="1" t="str">
         <f>_xlfn.CONCAT(D40:P40)</f>
         <v>00100000111000000000000110000110</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T40" s="1"/>
     </row>
@@ -2274,10 +2366,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -2304,10 +2396,10 @@
         <v>16</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>10</v>
@@ -2316,14 +2408,14 @@
         <v>10</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q41" s="1" t="str">
         <f>_xlfn.CONCAT(D41:P41)</f>
         <v>00100000111000010000000111000110</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T41" s="1"/>
     </row>
@@ -2332,10 +2424,10 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -2362,10 +2454,10 @@
         <v>14</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>10</v>
@@ -2374,14 +2466,14 @@
         <v>10</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q42" s="1" t="str">
         <f>_xlfn.CONCAT(D42:P42)</f>
         <v>11000000111000000000000010000110</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T42" s="1"/>
     </row>
@@ -2390,10 +2482,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -2420,10 +2512,10 @@
         <v>16</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>10</v>
@@ -2432,14 +2524,14 @@
         <v>10</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q43" s="1" t="str">
         <f>_xlfn.CONCAT(D43:P43)</f>
         <v>11000000111000010000000011000110</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T43" s="1"/>
     </row>
@@ -2448,10 +2540,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -2466,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>11</v>
@@ -2478,10 +2570,10 @@
         <v>14</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>10</v>
@@ -2490,14 +2582,14 @@
         <v>10</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q44" s="1" t="str">
         <f>_xlfn.CONCAT(D44:P44)</f>
         <v>00100000111000000000000100000110</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T44" s="1"/>
     </row>
@@ -2506,10 +2598,10 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
@@ -2524,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>10</v>
@@ -2536,10 +2628,10 @@
         <v>16</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>10</v>
@@ -2548,14 +2640,14 @@
         <v>10</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q45" s="1" t="str">
         <f>_xlfn.CONCAT(D45:P45)</f>
         <v>00100000111000010000000101000110</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T45" s="1"/>
     </row>
@@ -2564,7 +2656,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>54</v>
@@ -2594,11 +2686,11 @@
         <v>14</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="N46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2606,7 +2698,7 @@
         <v>10</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q46" s="1" t="str">
         <f>_xlfn.CONCAT(D46:P46)</f>
@@ -2622,7 +2714,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>55</v>
@@ -2652,10 +2744,10 @@
         <v>16</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>10</v>
@@ -2664,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q47" s="1" t="str">
         <f>_xlfn.CONCAT(D47:P47)</f>
@@ -2680,10 +2772,10 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -2710,10 +2802,10 @@
         <v>14</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>10</v>
@@ -2722,14 +2814,14 @@
         <v>10</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q48" s="1" t="str">
         <f>_xlfn.CONCAT(D48:P48)</f>
         <v>00100000111000000000000010000110</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T48" s="1"/>
     </row>
@@ -2738,10 +2830,10 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -2768,10 +2860,10 @@
         <v>16</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>10</v>
@@ -2780,14 +2872,14 @@
         <v>10</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q49" s="1" t="str">
         <f>_xlfn.CONCAT(D49:P49)</f>
         <v>00100000111000010000000011000110</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T49" s="1"/>
     </row>
@@ -2796,7 +2888,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -2811,10 +2903,10 @@
         <v>11</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>14</v>
@@ -2823,11 +2915,11 @@
         <v>14</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="N50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2835,15 +2927,15 @@
         <v>10</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="Q50" s="1" t="str">
         <f>_xlfn.CONCAT(D50:P50)</f>
-        <v>00001000000000000000000000000000</v>
+        <v>00000100000000000000000000000001</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="T50" s="1"/>
     </row>
@@ -2870,7 +2962,7 @@
         <v>11</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>10</v>
@@ -2882,11 +2974,11 @@
         <v>14</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="N51" s="1" t="s">
         <v>10</v>
       </c>
@@ -2894,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q51" s="1" t="str">
         <f>_xlfn.CONCAT(D51:P51)</f>
@@ -2940,10 +3032,10 @@
         <v>16</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>10</v>
@@ -2952,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q52" s="1" t="str">
         <f>_xlfn.CONCAT(D52:P52)</f>
@@ -2968,7 +3060,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>64</v>
@@ -2986,7 +3078,7 @@
         <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>10</v>
@@ -2998,10 +3090,10 @@
         <v>40</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>10</v>
@@ -3010,14 +3102,14 @@
         <v>10</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q53" s="1" t="str">
         <f>_xlfn.CONCAT(D53:P53)</f>
         <v>11000000111001010000000110000110</v>
       </c>
       <c r="S53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T53" s="1"/>
     </row>
@@ -3026,7 +3118,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>64</v>
@@ -3056,10 +3148,10 @@
         <v>13</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>10</v>
@@ -3068,72 +3160,72 @@
         <v>10</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q54" s="1" t="str">
         <f>_xlfn.CONCAT(D54:P54)</f>
         <v>11000000111001100000000111000110</v>
       </c>
       <c r="S54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22">
         <v>21</v>
       </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q55" s="1" t="str">
+      <c r="B55" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q55" s="23" t="str">
         <f>_xlfn.CONCAT(D55:P55)</f>
         <v>00000100000000000100000000000000</v>
       </c>
-      <c r="S55" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T55" s="1"/>
+      <c r="S55" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="T55" s="23"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -3170,10 +3262,10 @@
         <v>40</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>10</v>
@@ -3182,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q56" s="1" t="str">
         <f>_xlfn.CONCAT(D56:P56)</f>
@@ -3228,10 +3320,10 @@
         <v>13</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>10</v>
@@ -3240,7 +3332,7 @@
         <v>10</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q57" s="1" t="str">
         <f>_xlfn.CONCAT(D57:P57)</f>
@@ -3251,71 +3343,71 @@
       </c>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22">
         <v>24</v>
       </c>
-      <c r="B58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="B58" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q58" s="1" t="str">
+      <c r="L58" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q58" s="23" t="str">
         <f>_xlfn.CONCAT(D58:P58)</f>
         <v>00000100000000001000000000000000</v>
       </c>
-      <c r="S58" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T58" s="1"/>
+      <c r="S58" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="T58" s="23"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
@@ -3342,10 +3434,10 @@
         <v>40</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>10</v>
@@ -3354,14 +3446,14 @@
         <v>10</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q59" s="1" t="str">
         <f>_xlfn.CONCAT(D59:P59)</f>
         <v>11000000111001010000001001000110</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T59" s="1"/>
     </row>
@@ -3370,10 +3462,10 @@
         <v>26</v>
       </c>
       <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
@@ -3400,10 +3492,10 @@
         <v>13</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>10</v>
@@ -3412,14 +3504,14 @@
         <v>10</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q60" s="1" t="str">
         <f t="shared" ref="Q60:Q66" si="0">_xlfn.CONCAT(D60:P60)</f>
         <v>11000000111001100000000110000110</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T60" s="1"/>
     </row>
@@ -3428,7 +3520,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18" t="s">
@@ -3450,25 +3542,25 @@
         <v>10</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N61" s="18" t="s">
         <v>10</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Q61" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3484,10 +3576,10 @@
         <v>28</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>11</v>
@@ -3511,13 +3603,13 @@
         <v>26</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N62" s="18" t="s">
         <v>10</v>
@@ -3526,14 +3618,14 @@
         <v>10</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q62" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>00010000111010011111111111001000</v>
+        <v>00010000111010110011111111001000</v>
       </c>
       <c r="S62" s="19" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="T62" s="18"/>
     </row>
@@ -3542,10 +3634,10 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -3572,10 +3664,10 @@
         <v>13</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>10</v>
@@ -3584,14 +3676,14 @@
         <v>10</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>11000000111001100000001010000110</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T63" s="1"/>
     </row>
@@ -3600,10 +3692,10 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
@@ -3630,10 +3722,10 @@
         <v>40</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>10</v>
@@ -3642,14 +3734,14 @@
         <v>10</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>11000000111001010000000111000110</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T64" s="1"/>
     </row>
@@ -3658,7 +3750,7 @@
         <v>31</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18" t="s">
@@ -3680,25 +3772,25 @@
         <v>10</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M65" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N65" s="18" t="s">
         <v>10</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Q65" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3714,10 +3806,10 @@
         <v>32</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>11</v>
@@ -3741,13 +3833,13 @@
         <v>26</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M66" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N66" s="18" t="s">
         <v>10</v>
@@ -3756,14 +3848,14 @@
         <v>10</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q66" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>00010000111010011111111111001000</v>
+        <v>00010000111010110011111111001000</v>
       </c>
       <c r="S66" s="19" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="T66" s="18"/>
     </row>
@@ -3772,10 +3864,10 @@
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
@@ -3799,13 +3891,13 @@
         <v>26</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>10</v>
@@ -3814,14 +3906,14 @@
         <v>10</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q67" s="1" t="str">
         <f>_xlfn.CONCAT(D67:P67)</f>
-        <v>11000000111001010000001001000110</v>
+        <v>11000000111001010000001000000110</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="T67" s="1"/>
     </row>
@@ -3830,11 +3922,11 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
@@ -3849,19 +3941,19 @@
         <v>11</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>10</v>
@@ -3870,14 +3962,14 @@
         <v>10</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q68" s="1" t="str">
+        <v>186</v>
+      </c>
+      <c r="Q68" t="str">
         <f>_xlfn.CONCAT(D68:P68)</f>
-        <v>00000100000000001000000000000000</v>
-      </c>
-      <c r="S68" s="6" t="s">
-        <v>90</v>
+        <v>10000000101001010000000001000110</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="T68" s="1"/>
     </row>
@@ -3889,22 +3981,22 @@
         <v>195</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>10</v>
@@ -3916,10 +4008,10 @@
         <v>40</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>10</v>
@@ -3928,97 +4020,97 @@
         <v>10</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q69" s="1" t="str">
         <f>_xlfn.CONCAT(D69:P69)</f>
-        <v>11000000111001010000001000000110</v>
+        <v>00100000111001010000001000000110</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="22">
         <v>36</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L70" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="N70" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="O70" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P70" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q70" t="str">
+      <c r="Q70" s="23" t="str">
         <f>_xlfn.CONCAT(D70:P70)</f>
-        <v>10000000101001010000000001000110</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T70" s="1"/>
+        <v>00000100000000000000000000100000</v>
+      </c>
+      <c r="S70" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="T70" s="23"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>10</v>
@@ -4027,13 +4119,13 @@
         <v>26</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>10</v>
@@ -4042,305 +4134,427 @@
         <v>10</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q71" s="1" t="str">
         <f>_xlfn.CONCAT(D71:P71)</f>
-        <v>00100000111001010000001000000110</v>
+        <v>11000000111001010000001001000110</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22">
         <v>38</v>
       </c>
-      <c r="B72" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q72" s="1" t="str">
+      <c r="B72" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="M72" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P72" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q72" s="23" t="str">
         <f>_xlfn.CONCAT(D72:P72)</f>
-        <v>00000100000000000000000000100000</v>
-      </c>
-      <c r="S72" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="T72" s="1"/>
-    </row>
-    <row r="73" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
+        <v>00000100000000000100000000000000</v>
+      </c>
+      <c r="S72" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="T72" s="23"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>39</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J73" s="18" t="s">
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q73" t="str">
+        <f>_xlfn.CONCAT(D73:P73)</f>
+        <v>10000100000001010000000000000011</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74" t="str">
+        <f>_xlfn.CONCAT(D74:P74)</f>
+        <v>10000100000001100000000000000011</v>
+      </c>
+      <c r="S74" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K73" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M73" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="N73" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O73" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P73" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q73" s="18" t="str">
-        <f>_xlfn.CONCAT(D73:P73)</f>
-        <v>00010000111000010011111111001000</v>
-      </c>
-      <c r="S73" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="T73" s="18"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q74" s="1"/>
-      <c r="T74" s="1"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K75" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q75" s="1" t="str">
         <f>_xlfn.CONCAT(D75:P75)</f>
-        <v>00000100000000001100000000000000</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>90</v>
+        <v>00100000111001010000001001000110</v>
+      </c>
+      <c r="S75" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="A76">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q76" s="1" t="str">
+        <f>_xlfn.CONCAT(D76:P76)</f>
+        <v>00100000111001100000001010000110</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="S78" s="1"/>
+    <row r="77" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="22">
+        <v>43</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N77" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P77" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q77" s="23" t="str">
+        <f>_xlfn.CONCAT(D77:P77)</f>
+        <v>00000100000000001000000000000000</v>
+      </c>
+      <c r="S77" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="T77" s="23"/>
+    </row>
+    <row r="78" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="17">
+        <v>44</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M78" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P78" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q78" s="18" t="str">
+        <f>_xlfn.CONCAT(D78:P78)</f>
+        <v>00010000111000010011111111001000</v>
+      </c>
+      <c r="S78" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="T78" s="18"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q79" t="str">
-        <f>_xlfn.CONCAT(D79:P79)</f>
-        <v>10000000000000000000000001000110</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q79" s="1"/>
+      <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>67</v>
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>11</v>
@@ -4349,10 +4563,10 @@
         <v>11</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>14</v>
@@ -4361,131 +4575,66 @@
         <v>14</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q80" t="str">
+        <v>189</v>
+      </c>
+      <c r="Q80" s="1" t="str">
         <f>_xlfn.CONCAT(D80:P80)</f>
-        <v>10000000000000001111111111000110</v>
+        <v>00000100000000001100000000000000</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="T80" s="1"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q81" t="str">
-        <f>_xlfn.CONCAT(D81:P81)</f>
-        <v>10000000001000010000000001000110</v>
-      </c>
-      <c r="S81" s="1">
-        <v>80210046</v>
-      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="T81" s="1"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q82" t="str">
-        <f>_xlfn.CONCAT(D82:P82)</f>
-        <v>10000000001000011111111111000110</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4502,243 +4651,299 @@
       <c r="S83" s="1"/>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q84" t="str">
+        <f>_xlfn.CONCAT(D84:P84)</f>
+        <v>00000000000000000000000000000000</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q85" t="str">
+        <f>_xlfn.CONCAT(D85:P85)</f>
+        <v>10000000000000000000000001000110</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" t="s">
-        <v>129</v>
-      </c>
-      <c r="G86" t="s">
-        <v>130</v>
-      </c>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K86" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="L86" s="14"/>
-      <c r="M86" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="P86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q86">
-        <v>4</v>
-      </c>
-      <c r="R86">
-        <v>5</v>
-      </c>
-      <c r="S86" s="15">
-        <v>6</v>
-      </c>
-      <c r="T86" s="15">
-        <v>7</v>
+        <v>186</v>
+      </c>
+      <c r="Q86" t="str">
+        <f>_xlfn.CONCAT(D86:P86)</f>
+        <v>10000000000000001111111111000110</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="G87" t="s">
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N87" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+      <c r="O87" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="P87" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="Q87" t="str">
+        <f>_xlfn.CONCAT(D87:P87)</f>
+        <v>10000000001000010000000001000110</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F88" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J88" s="1" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L88" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="M88" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="P88" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="Q88" t="str">
+        <f>_xlfn.CONCAT(D88:P88)</f>
+        <v>10000000001000011111111111000110</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>142</v>
-      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
+      <c r="P89" s="1"/>
+      <c r="S89" s="1"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
+      <c r="P90" s="1"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -4750,339 +4955,278 @@
       <c r="P91" s="1"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="F92" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" t="s">
+        <v>127</v>
+      </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
+      <c r="J92" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L92" s="14"/>
+      <c r="M92" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92" s="15">
+        <v>6</v>
+      </c>
+      <c r="T92" s="15">
+        <v>7</v>
+      </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="J93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
+      <c r="M93" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
+      <c r="P93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="1"/>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
+      <c r="M94" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
+      <c r="P94" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B95">
+      <c r="C95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q96">
         <v>1</v>
       </c>
-      <c r="D95" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="1"/>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R96" s="13" t="str">
-        <f>_xlfn.CONCAT(E96:Q96)</f>
-        <v>10000000111000000000000001000110</v>
-      </c>
-      <c r="S96" s="13"/>
-      <c r="T96" s="1" t="s">
-        <v>28</v>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-      <c r="N97" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="1"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E98" s="1">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R98" s="13" t="str">
-        <f>_xlfn.CONCAT(E98:Q98)</f>
-        <v>10000000111000010000000100000110</v>
-      </c>
-      <c r="S98" s="13"/>
-      <c r="T98" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="D99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="N99" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="Q99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="1"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R100" s="13" t="str">
-        <f>_xlfn.CONCAT(E100:Q100)</f>
-        <v>00100000111000010000000000000110</v>
-      </c>
-      <c r="S100" s="13"/>
-      <c r="T100" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>9</v>
@@ -5094,23 +5238,23 @@
         <v>11</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -5122,88 +5266,88 @@
       <c r="T101" s="1"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E102" s="1">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0</v>
+      <c r="E102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R102" s="13" t="str">
         <f>_xlfn.CONCAT(E102:Q102)</f>
-        <v>10000000111000010000000100000110</v>
+        <v>10000000111000000000000001000110</v>
       </c>
       <c r="S102" s="13"/>
       <c r="T102" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K103" s="1">
-        <v>7</v>
-      </c>
-      <c r="L103" s="1">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M103" s="1"/>
-      <c r="N103" s="1">
-        <v>1</v>
+      <c r="N103" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -5215,14 +5359,14 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>9</v>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>10</v>
@@ -5240,44 +5384,44 @@
         <v>16</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R104" s="13" t="str">
         <f>_xlfn.CONCAT(E104:Q104)</f>
-        <v>00100000111000010000000001000110</v>
+        <v>10000000111000010000000100000110</v>
       </c>
       <c r="S104" s="13"/>
       <c r="T104" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>10</v>
@@ -5292,11 +5436,11 @@
         <v>25</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -5309,13 +5453,13 @@
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>10</v>
@@ -5330,47 +5474,47 @@
         <v>26</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N106" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="O106" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R106" s="13" t="str">
         <f>_xlfn.CONCAT(E106:Q106)</f>
-        <v>10000000111000000000000001000110</v>
+        <v>00100000111000010000000000000110</v>
       </c>
       <c r="S106" s="13"/>
       <c r="T106" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B107">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1">
-        <v>1</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>10</v>
@@ -5389,7 +5533,7 @@
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -5401,14 +5545,14 @@
       <c r="T107" s="1"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>11</v>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>10</v>
@@ -5426,44 +5570,44 @@
         <v>16</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R108" s="13" t="str">
         <f>_xlfn.CONCAT(E108:Q108)</f>
-        <v>11000000111000010000000000000110</v>
+        <v>10000000111000010000000100000110</v>
       </c>
       <c r="S108" s="13"/>
       <c r="T108" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B109">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>10</v>
@@ -5474,15 +5618,15 @@
       <c r="J109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>9</v>
+      <c r="K109" s="1">
+        <v>7</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1</v>
       </c>
       <c r="M109" s="1"/>
-      <c r="N109" s="1" t="s">
-        <v>9</v>
+      <c r="N109" s="1">
+        <v>1</v>
       </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -5495,13 +5639,13 @@
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>10</v>
@@ -5513,50 +5657,50 @@
         <v>10</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R110" s="13" t="str">
         <f>_xlfn.CONCAT(E110:Q110)</f>
-        <v>10000000001000010000000001000110</v>
+        <v>00100000111000010000000001000110</v>
       </c>
       <c r="S110" s="13"/>
       <c r="T110" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B111">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="1">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1">
-        <v>0</v>
-      </c>
-      <c r="G111" s="1">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>10</v>
@@ -5571,16 +5715,16 @@
         <v>25</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
-      <c r="Q111" s="1">
-        <v>110</v>
+      <c r="Q111" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
@@ -5588,13 +5732,13 @@
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E112" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>10</v>
@@ -5609,13 +5753,13 @@
         <v>26</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>10</v>
@@ -5624,32 +5768,32 @@
         <v>10</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R112" s="13" t="str">
         <f>_xlfn.CONCAT(E112:Q112)</f>
-        <v>00100000111000010000000000000110</v>
+        <v>10000000111000000000000001000110</v>
       </c>
       <c r="S112" s="13"/>
       <c r="T112" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>10</v>
@@ -5664,7 +5808,7 @@
         <v>25</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M113" s="1"/>
       <c r="N113" s="1" t="s">
@@ -5702,14 +5846,14 @@
         <v>26</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M114" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N114" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N114" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="O114" s="1" t="s">
         <v>10</v>
       </c>
@@ -5717,29 +5861,29 @@
         <v>10</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R114" s="13" t="str">
         <f>_xlfn.CONCAT(E114:Q114)</f>
-        <v>11000000111001010000000000000110</v>
+        <v>11000000111000010000000000000110</v>
       </c>
       <c r="S114" s="13"/>
       <c r="T114" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B115">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>11</v>
@@ -5754,10 +5898,10 @@
         <v>10</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M115" s="1"/>
       <c r="N115" s="1" t="s">
@@ -5770,13 +5914,14 @@
       </c>
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
+      <c r="T115" s="1"/>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>11</v>
@@ -5791,16 +5936,16 @@
         <v>10</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>10</v>
@@ -5809,35 +5954,35 @@
         <v>10</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R116" s="13" t="str">
         <f>_xlfn.CONCAT(E116:Q116)</f>
-        <v>11000000111001100000000001000110</v>
+        <v>10000000001000010000000001000110</v>
       </c>
       <c r="S116" s="13"/>
-      <c r="T116" t="s">
-        <v>42</v>
+      <c r="T116" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B117">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>10</v>
@@ -5846,10 +5991,10 @@
         <v>10</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="1" t="s">
@@ -5857,11 +6002,12 @@
       </c>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
-      <c r="Q117" s="1" t="s">
-        <v>45</v>
+      <c r="Q117" s="1">
+        <v>110</v>
       </c>
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
+      <c r="T117" s="1"/>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E118" s="1" t="s">
@@ -5871,10 +6017,10 @@
         <v>11</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>10</v>
@@ -5883,17 +6029,17 @@
         <v>10</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M118" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N118" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N118" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="O118" s="1" t="s">
         <v>10</v>
       </c>
@@ -5901,106 +6047,293 @@
         <v>10</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R118" s="13" t="str">
         <f>_xlfn.CONCAT(E118:Q118)</f>
-        <v>00010000000000000000000000000011</v>
+        <v>00100000111000010000000000000110</v>
       </c>
       <c r="S118" s="13"/>
-      <c r="T118">
-        <v>10000003</v>
+      <c r="T118" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
+      <c r="N119" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
+      <c r="Q119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="1"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R120" s="13" t="str">
+        <f>_xlfn.CONCAT(E120:Q120)</f>
+        <v>11000000111001010000000000000110</v>
+      </c>
+      <c r="S120" s="13"/>
+      <c r="T120" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
+      <c r="B121">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
+      <c r="N121" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
+      <c r="Q121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R122" s="13" t="str">
+        <f>_xlfn.CONCAT(E122:Q122)</f>
+        <v>11000000111001100000000001000110</v>
+      </c>
+      <c r="S122" s="13"/>
+      <c r="T122" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="123" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
+      <c r="B123">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
+      <c r="N123" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
+      <c r="Q123" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R123" s="13"/>
+      <c r="S123" s="13"/>
     </row>
     <row r="124" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R124" s="13" t="str">
+        <f>_xlfn.CONCAT(E124:Q124)</f>
+        <v>00010000000000000000000000000011</v>
+      </c>
+      <c r="S124" s="13"/>
+      <c r="T124">
+        <v>10000003</v>
+      </c>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
@@ -6857,35 +7190,126 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
     </row>
+    <row r="182" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+    </row>
+    <row r="183" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+    </row>
+    <row r="184" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+    </row>
+    <row r="185" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+    </row>
+    <row r="186" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+    </row>
+    <row r="187" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="R116:S116"/>
+  <mergeCells count="28">
+    <mergeCell ref="R122:S122"/>
+    <mergeCell ref="R123:S123"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="R117:S117"/>
     <mergeCell ref="R118:S118"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="R111:S111"/>
+    <mergeCell ref="R119:S119"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="R121:S121"/>
     <mergeCell ref="R112:S112"/>
     <mergeCell ref="R113:S113"/>
     <mergeCell ref="R114:S114"/>
     <mergeCell ref="R115:S115"/>
-    <mergeCell ref="R106:S106"/>
+    <mergeCell ref="R116:S116"/>
     <mergeCell ref="R107:S107"/>
     <mergeCell ref="R108:S108"/>
     <mergeCell ref="R109:S109"/>
     <mergeCell ref="R110:S110"/>
-    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="R111:S111"/>
     <mergeCell ref="R102:S102"/>
     <mergeCell ref="R103:S103"/>
     <mergeCell ref="R104:S104"/>
     <mergeCell ref="R105:S105"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="R106:S106"/>
     <mergeCell ref="D28:I28"/>
     <mergeCell ref="D30:I30"/>
-    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
